--- a/data/trans_camb/iP22_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/iP22_R-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>12,27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-11,0</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-14,03</t>
+          <t>-5,88</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,57</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>9,14</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-6,64</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-8,87</t>
+          <t>3,06</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 7,34</t>
+          <t>-8,58; 34,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,88; -4,9</t>
+          <t>-15,61; 25,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,1; -7,74</t>
+          <t>-23,76; 13,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,98; 15,36</t>
+          <t>-19,91; 18,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 4,11</t>
+          <t>-19,01; 26,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 3,66</t>
+          <t>-12,7; 30,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 9,19</t>
+          <t>-8,57; 20,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,17; -2,29</t>
+          <t>-11,62; 18,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,39; -4,61</t>
+          <t>-11,75; 19,02</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>75,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-41,19%</t>
+          <t>23,73%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-52,51%</t>
+          <t>-36,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>41,86%</t>
+          <t>-9,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-9,3%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-13,66%</t>
+          <t>45,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>31,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-27,99%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-37,38%</t>
+          <t>16,95%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,25; 31,72</t>
+          <t>-42,59; 536,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-56,86; -20,84</t>
+          <t>-69,4; 375,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-66,89; -31,83</t>
+          <t>-100,0; 239,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,99; 93,42</t>
+          <t>-74,09; 191,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,98; 24,06</t>
+          <t>-67,35; 316,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,67; 22,36</t>
+          <t>-48,95; 327,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 42,95</t>
+          <t>-36,99; 195,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-42,66; -9,8</t>
+          <t>-45,39; 160,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-51,7; -20,34</t>
+          <t>-50,74; 169,97</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>-11,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>-14,03</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,85</t>
+          <t>8,57</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,94</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>-6,64</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-8,87</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 10,78</t>
+          <t>-6,62; 7,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 3,87</t>
+          <t>-16,88; -4,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 8,08</t>
+          <t>-20,1; -7,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,11; 12,89</t>
+          <t>1,98; 15,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 4,26</t>
+          <t>-8,32; 4,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 2,69</t>
+          <t>-10,77; 3,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 10,41</t>
+          <t>-0,41; 9,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 1,79</t>
+          <t>-11,17; -2,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 3,49</t>
+          <t>-13,39; -4,61</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>29,58%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-12,42%</t>
+          <t>-41,19%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>-52,51%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>51,32%</t>
+          <t>41,86%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-10,99%</t>
+          <t>-9,3%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-25,06%</t>
+          <t>-13,66%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>39,17%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-11,81%</t>
+          <t>-27,99%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-5,29%</t>
+          <t>-37,38%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 75,19</t>
+          <t>-21,25; 31,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-42,41; 24,68</t>
+          <t>-56,86; -20,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 54,66</t>
+          <t>-66,89; -31,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,71; 123,03</t>
+          <t>9,99; 93,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,73; 41,93</t>
+          <t>-33,98; 24,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-54,78; 26,29</t>
+          <t>-44,67; 22,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,64; 78,7</t>
+          <t>-1,7; 42,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,25; 13,1</t>
+          <t>-42,66; -9,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-29,55; 25,84</t>
+          <t>-51,7; -20,34</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>12,27</t>
+          <t>10,58</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>-6,93</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,88</t>
+          <t>-11,77</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>-4,98</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>-4,15</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,14</t>
+          <t>-10,19</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>-5,59</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>-11,0</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 34,37</t>
+          <t>2,01; 18,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,61; 25,14</t>
+          <t>-14,16; 0,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-23,76; 13,32</t>
+          <t>-19,81; -4,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-19,91; 18,24</t>
+          <t>-12,2; 2,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-19,01; 26,7</t>
+          <t>-12,23; 2,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 30,98</t>
+          <t>-17,64; -2,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 20,27</t>
+          <t>-2,59; 8,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 18,11</t>
+          <t>-11,21; 0,75</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 19,02</t>
+          <t>-16,25; -5,29</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>75,88%</t>
+          <t>40,13%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>23,73%</t>
+          <t>-26,29%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-36,34%</t>
+          <t>-44,63%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-9,67%</t>
+          <t>-19,05%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>-15,88%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>45,42%</t>
+          <t>-39,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>31,08%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>-21,28%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>-41,88%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-42,59; 536,16</t>
+          <t>5,32; 83,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-69,4; 375,21</t>
+          <t>-45,95; 3,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 239,48</t>
+          <t>-65,29; -17,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-74,09; 191,57</t>
+          <t>-43,86; 8,91</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-67,35; 316,06</t>
+          <t>-39,28; 12,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-48,95; 327,56</t>
+          <t>-59,28; -12,1</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-36,99; 195,65</t>
+          <t>-8,71; 38,02</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-45,39; 160,24</t>
+          <t>-37,9; 3,46</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-50,74; 169,97</t>
+          <t>-55,5; -22,84</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>10,58</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-6,93</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-11,77</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-4,98</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-4,15</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-10,19</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-5,59</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-11,0</t>
+          <t>-0,8</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,01; 18,59</t>
+          <t>-1,96; 10,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,16; 0,65</t>
+          <t>-8,43; 3,87</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-19,81; -4,29</t>
+          <t>-5,02; 8,08</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 2,43</t>
+          <t>1,11; 12,89</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-12,23; 2,51</t>
+          <t>-6,78; 4,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-17,64; -2,91</t>
+          <t>-8,73; 2,69</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 8,96</t>
+          <t>1,36; 10,41</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-11,21; 0,75</t>
+          <t>-6,09; 1,79</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-16,25; -5,29</t>
+          <t>-4,84; 3,49</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>40,13%</t>
+          <t>29,58%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-26,29%</t>
+          <t>-12,42%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-44,63%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-19,05%</t>
+          <t>51,32%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-15,88%</t>
+          <t>-10,99%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-39,0%</t>
+          <t>-25,06%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>39,17%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-21,28%</t>
+          <t>-11,81%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-41,88%</t>
+          <t>-5,29%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>5,32; 83,24</t>
+          <t>-8,77; 75,19</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-45,95; 3,43</t>
+          <t>-42,41; 24,68</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-65,29; -17,6</t>
+          <t>-25,2; 54,66</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-43,86; 8,91</t>
+          <t>3,71; 123,03</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-39,28; 12,23</t>
+          <t>-41,73; 41,93</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-59,28; -12,1</t>
+          <t>-54,78; 26,29</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 38,02</t>
+          <t>7,64; 78,7</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-37,9; 3,46</t>
+          <t>-35,25; 13,1</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-55,5; -22,84</t>
+          <t>-29,55; 25,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/iP22_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/iP22_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 34,37</t>
+          <t>-7,51; 34,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,61; 25,14</t>
+          <t>-15,0; 23,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,76; 13,32</t>
+          <t>-22,81; 14,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,91; 18,24</t>
+          <t>-22,73; 18,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,01; 26,7</t>
+          <t>-17,69; 27,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 30,98</t>
+          <t>-14,3; 28,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 20,27</t>
+          <t>-10,12; 20,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 18,11</t>
+          <t>-11,44; 18,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 19,02</t>
+          <t>-10,36; 20,31</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-42,59; 536,16</t>
+          <t>-39,97; 530,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-69,4; 375,21</t>
+          <t>-69,41; 336,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 239,48</t>
+          <t>-100,0; 261,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-74,09; 191,57</t>
+          <t>-81,89; 205,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-67,35; 316,06</t>
+          <t>-65,67; 292,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-48,95; 327,56</t>
+          <t>-47,66; 300,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-36,99; 195,65</t>
+          <t>-39,85; 183,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-45,39; 160,24</t>
+          <t>-48,09; 171,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-50,74; 169,97</t>
+          <t>-45,04; 195,21</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 15,07</t>
+          <t>-0,47; 16,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 8,59</t>
+          <t>-6,91; 8,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 7,22</t>
+          <t>-8,99; 7,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 14,57</t>
+          <t>-4,37; 13,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 7,92</t>
+          <t>-9,49; 7,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,82; 3,43</t>
+          <t>-12,87; 3,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,08; 12,01</t>
+          <t>-0,23; 12,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 5,36</t>
+          <t>-5,91; 5,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 2,59</t>
+          <t>-8,58; 2,93</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 117,78</t>
+          <t>-3,56; 126,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,22; 63,6</t>
+          <t>-33,15; 60,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-46,74; 55,19</t>
+          <t>-43,99; 58,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,58; 101,42</t>
+          <t>-18,61; 84,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,89; 52,12</t>
+          <t>-38,4; 49,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,32; 22,89</t>
+          <t>-54,2; 26,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 77,75</t>
+          <t>-1,37; 79,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,74; 35,56</t>
+          <t>-27,47; 37,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-44,42; 17,61</t>
+          <t>-41,59; 19,51</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 7,34</t>
+          <t>-5,68; 8,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,88; -4,9</t>
+          <t>-17,34; -4,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-20,1; -7,74</t>
+          <t>-20,2; -7,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,98; 15,36</t>
+          <t>2,25; 15,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 4,11</t>
+          <t>-7,94; 3,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 3,66</t>
+          <t>-9,49; 4,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 9,19</t>
+          <t>-0,16; 9,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,17; -2,29</t>
+          <t>-11,3; -2,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,39; -4,61</t>
+          <t>-13,69; -4,64</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,25; 31,72</t>
+          <t>-19,6; 37,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,86; -20,84</t>
+          <t>-56,47; -19,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-66,89; -31,83</t>
+          <t>-67,04; -33,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,99; 93,42</t>
+          <t>9,2; 86,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-33,98; 24,06</t>
+          <t>-33,31; 22,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,67; 22,36</t>
+          <t>-40,49; 24,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 42,95</t>
+          <t>-0,41; 43,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-42,66; -9,8</t>
+          <t>-43,95; -10,62</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-51,7; -20,34</t>
+          <t>-51,65; -20,45</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,01; 18,59</t>
+          <t>2,33; 19,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,16; 0,65</t>
+          <t>-14,96; -0,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,81; -4,29</t>
+          <t>-19,01; -4,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 2,43</t>
+          <t>-12,44; 3,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,23; 2,51</t>
+          <t>-11,34; 3,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,64; -2,91</t>
+          <t>-17,69; -2,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 8,96</t>
+          <t>-3,1; 8,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-11,21; 0,75</t>
+          <t>-11,19; -0,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-16,25; -5,29</t>
+          <t>-16,32; -5,59</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,32; 83,24</t>
+          <t>7,11; 84,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-45,95; 3,43</t>
+          <t>-50,18; -0,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-65,29; -17,6</t>
+          <t>-63,38; -17,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-43,86; 8,91</t>
+          <t>-41,62; 15,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-39,28; 12,23</t>
+          <t>-38,21; 17,3</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-59,28; -12,1</t>
+          <t>-58,57; -10,09</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 38,02</t>
+          <t>-10,34; 35,51</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-37,9; 3,46</t>
+          <t>-37,48; 0,64</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-55,5; -22,84</t>
+          <t>-56,74; -23,62</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 10,78</t>
+          <t>-1,18; 11,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 3,87</t>
+          <t>-8,43; 3,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 8,08</t>
+          <t>-4,64; 8,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,11; 12,89</t>
+          <t>0,56; 13,12</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 4,26</t>
+          <t>-7,11; 3,73</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 2,69</t>
+          <t>-8,83; 2,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,36; 10,41</t>
+          <t>1,68; 10,75</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 1,79</t>
+          <t>-5,87; 2,05</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 3,49</t>
+          <t>-5,07; 3,47</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 75,19</t>
+          <t>-5,41; 88,65</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-42,41; 24,68</t>
+          <t>-40,45; 29,26</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 54,66</t>
+          <t>-24,46; 60,36</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>3,71; 123,03</t>
+          <t>2,57; 120,57</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-41,73; 41,93</t>
+          <t>-42,72; 38,22</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-54,78; 26,29</t>
+          <t>-55,19; 24,08</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>7,64; 78,7</t>
+          <t>9,64; 83,83</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-35,25; 13,1</t>
+          <t>-34,33; 15,71</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-29,55; 25,84</t>
+          <t>-30,2; 25,9</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,42; 9,4</t>
+          <t>2,38; 9,63</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,45; -1,78</t>
+          <t>-8,66; -1,72</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,92; -2,99</t>
+          <t>-9,81; -3,15</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,78; 7,65</t>
+          <t>0,85; 7,9</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 1,43</t>
+          <t>-5,02; 1,27</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,87; -0,97</t>
+          <t>-7,83; -0,79</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,28; 7,67</t>
+          <t>2,48; 7,5</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-5,78; -1,06</t>
+          <t>-5,91; -1,26</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-8,04; -3,04</t>
+          <t>-8,09; -3,23</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>10,04; 46,86</t>
+          <t>10,23; 47,42</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-35,6; -8,79</t>
+          <t>-37,0; -8,86</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-42,31; -14,49</t>
+          <t>-42,5; -15,88</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>3,46; 43,03</t>
+          <t>4,26; 44,97</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-24,9; 7,83</t>
+          <t>-24,52; 6,99</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-37,05; -5,49</t>
+          <t>-37,46; -4,56</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>10,12; 39,47</t>
+          <t>11,6; 38,65</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-26,27; -5,3</t>
+          <t>-26,63; -6,5</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-37,22; -15,68</t>
+          <t>-37,04; -16,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/iP22_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/iP22_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 34,49</t>
+          <t>-9,75; 36,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,0; 23,15</t>
+          <t>-15,4; 25,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,81; 14,64</t>
+          <t>-23,47; 15,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-22,73; 18,25</t>
+          <t>-23,99; 17,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,69; 27,66</t>
+          <t>-20,02; 27,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 28,71</t>
+          <t>-15,11; 30,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 20,27</t>
+          <t>-10,5; 20,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 18,82</t>
+          <t>-9,73; 18,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 20,31</t>
+          <t>-13,06; 18,38</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-39,97; 530,0</t>
+          <t>-44,49; 734,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-69,41; 336,04</t>
+          <t>-65,05; 472,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 261,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-81,89; 205,07</t>
+          <t>-79,31; 181,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-65,67; 292,9</t>
+          <t>-70,57; 273,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,66; 300,65</t>
+          <t>-55,84; 302,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,85; 183,4</t>
+          <t>-43,54; 180,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-48,09; 171,46</t>
+          <t>-43,89; 177,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-45,04; 195,21</t>
+          <t>-53,51; 158,46</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 16,22</t>
+          <t>-0,96; 16,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 8,31</t>
+          <t>-7,12; 8,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 7,65</t>
+          <t>-8,73; 8,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 13,62</t>
+          <t>-5,03; 13,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 7,71</t>
+          <t>-9,62; 7,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 3,5</t>
+          <t>-13,21; 2,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 12,16</t>
+          <t>-0,01; 12,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 5,74</t>
+          <t>-6,31; 5,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 2,93</t>
+          <t>-8,97; 2,82</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 126,88</t>
+          <t>-4,35; 127,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,15; 60,97</t>
+          <t>-35,35; 67,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,99; 58,47</t>
+          <t>-43,14; 60,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 84,28</t>
+          <t>-20,47; 88,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,4; 49,33</t>
+          <t>-41,02; 44,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,2; 26,69</t>
+          <t>-56,36; 18,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 79,33</t>
+          <t>-0,61; 77,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,47; 37,63</t>
+          <t>-29,68; 33,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-41,59; 19,51</t>
+          <t>-41,38; 18,75</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 8,21</t>
+          <t>-5,87; 7,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,34; -4,63</t>
+          <t>-16,94; -5,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-20,2; -7,99</t>
+          <t>-20,71; -8,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,25; 15,39</t>
+          <t>1,91; 15,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 3,79</t>
+          <t>-8,07; 3,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 4,2</t>
+          <t>-8,95; 3,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 9,17</t>
+          <t>-0,01; 9,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,3; -2,25</t>
+          <t>-11,04; -2,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,69; -4,64</t>
+          <t>-13,51; -4,4</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-19,6; 37,35</t>
+          <t>-20,07; 32,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,47; -19,42</t>
+          <t>-56,99; -22,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-67,04; -33,43</t>
+          <t>-67,21; -32,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,2; 86,37</t>
+          <t>7,8; 87,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-33,31; 22,19</t>
+          <t>-34,45; 19,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,49; 24,49</t>
+          <t>-38,79; 21,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 43,85</t>
+          <t>-0,25; 45,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-43,95; -10,62</t>
+          <t>-41,64; -10,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-51,65; -20,45</t>
+          <t>-51,82; -19,59</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,33; 19,42</t>
+          <t>2,62; 18,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,96; -0,08</t>
+          <t>-14,23; 0,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,01; -4,0</t>
+          <t>-19,27; -3,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 3,14</t>
+          <t>-12,14; 1,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 3,66</t>
+          <t>-11,85; 3,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,69; -2,29</t>
+          <t>-17,72; -3,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 8,45</t>
+          <t>-2,63; 8,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-11,19; -0,08</t>
+          <t>-11,44; 0,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-16,32; -5,59</t>
+          <t>-16,76; -5,83</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,11; 84,05</t>
+          <t>8,3; 84,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-50,18; -0,63</t>
+          <t>-47,0; 1,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-63,38; -17,35</t>
+          <t>-63,65; -15,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-41,62; 15,01</t>
+          <t>-39,4; 9,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-38,21; 17,3</t>
+          <t>-39,7; 16,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-58,57; -10,09</t>
+          <t>-58,62; -12,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 35,51</t>
+          <t>-9,63; 37,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-37,48; 0,64</t>
+          <t>-37,5; 0,25</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-56,74; -23,62</t>
+          <t>-55,59; -22,81</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 11,78</t>
+          <t>-0,87; 11,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 3,94</t>
+          <t>-7,78; 3,73</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 8,12</t>
+          <t>-4,89; 8,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,56; 13,12</t>
+          <t>0,87; 12,95</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 3,73</t>
+          <t>-6,7; 4,11</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 2,22</t>
+          <t>-8,49; 2,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,68; 10,75</t>
+          <t>1,54; 10,92</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 2,05</t>
+          <t>-5,88; 2,16</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 3,47</t>
+          <t>-4,98; 3,51</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 88,65</t>
+          <t>-4,9; 86,31</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-40,45; 29,26</t>
+          <t>-39,75; 26,92</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-24,46; 60,36</t>
+          <t>-24,59; 60,26</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2,57; 120,57</t>
+          <t>1,79; 116,22</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-42,72; 38,22</t>
+          <t>-42,97; 43,14</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-55,19; 24,08</t>
+          <t>-54,81; 32,47</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>9,64; 83,83</t>
+          <t>8,61; 83,15</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-34,33; 15,71</t>
+          <t>-33,67; 17,77</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-30,2; 25,9</t>
+          <t>-29,73; 25,52</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,38; 9,63</t>
+          <t>2,19; 9,63</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,66; -1,72</t>
+          <t>-8,46; -1,72</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,81; -3,15</t>
+          <t>-9,85; -3,01</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,85; 7,9</t>
+          <t>1,02; 8,01</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 1,27</t>
+          <t>-4,92; 1,56</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,83; -0,79</t>
+          <t>-7,52; -0,87</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,48; 7,5</t>
+          <t>2,51; 7,67</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-5,91; -1,26</t>
+          <t>-5,71; -0,96</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-8,09; -3,23</t>
+          <t>-8,1; -3,22</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>10,23; 47,42</t>
+          <t>9,09; 49,4</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-37,0; -8,86</t>
+          <t>-35,5; -8,26</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-42,5; -15,88</t>
+          <t>-41,87; -14,73</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>4,26; 44,97</t>
+          <t>4,98; 46,42</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-24,52; 6,99</t>
+          <t>-23,55; 8,88</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-37,46; -4,56</t>
+          <t>-36,44; -4,67</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>11,6; 38,65</t>
+          <t>11,11; 38,72</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-26,63; -6,5</t>
+          <t>-26,3; -4,89</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-37,04; -16,5</t>
+          <t>-37,06; -16,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/iP22_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/iP22_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,27</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,88</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>8,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,14</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>-2,05</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 36,1</t>
+          <t>-4,77; 12,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,4; 25,48</t>
+          <t>-8,14; 7,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,47; 15,46</t>
+          <t>-9,59; 5,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-23,99; 17,39</t>
+          <t>0,23; 16,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,02; 27,69</t>
+          <t>-6,18; 8,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 30,89</t>
+          <t>-9,62; 7,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 20,64</t>
+          <t>0,1; 11,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 18,54</t>
+          <t>-4,75; 6,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 18,38</t>
+          <t>-7,24; 3,93</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>75,88%</t>
+          <t>17,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>23,73%</t>
+          <t>-0,29%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-36,34%</t>
+          <t>-12,06%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-9,67%</t>
+          <t>48,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>45,42%</t>
+          <t>-9,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>31,08%</t>
+          <t>32,53%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>-11,21%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-44,49; 734,09</t>
+          <t>-20,25; 76,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-65,05; 472,72</t>
+          <t>-35,83; 45,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,89; 33,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-79,31; 181,42</t>
+          <t>0,07; 122,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-70,57; 273,98</t>
+          <t>-30,87; 69,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-55,84; 302,22</t>
+          <t>-48,31; 54,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-43,54; 180,08</t>
+          <t>1,54; 72,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-43,89; 177,1</t>
+          <t>-22,77; 38,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-53,51; 158,46</t>
+          <t>-35,45; 24,74</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,36</t>
+          <t>8,57</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-11,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,15</t>
+          <t>-13,63</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,01</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-6,64</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>-7,78</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 16,32</t>
+          <t>1,98; 15,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 8,65</t>
+          <t>-8,32; 4,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 8,01</t>
+          <t>-9,02; 8,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 13,4</t>
+          <t>-6,62; 7,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 7,24</t>
+          <t>-16,88; -4,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,21; 2,98</t>
+          <t>-19,74; -7,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 12,04</t>
+          <t>-0,41; 9,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 5,27</t>
+          <t>-11,17; -2,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 2,82</t>
+          <t>-12,45; -2,78</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>43,83%</t>
+          <t>41,86%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>-9,3%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-6,7%</t>
+          <t>-3,42%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,6%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-4,49%</t>
+          <t>-41,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-25,8%</t>
+          <t>-51,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,8%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,77%</t>
+          <t>-27,99%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-16,62%</t>
+          <t>-32,8%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 127,79</t>
+          <t>9,99; 93,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-35,35; 67,51</t>
+          <t>-33,98; 24,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,14; 60,02</t>
+          <t>-37,7; 46,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,47; 88,05</t>
+          <t>-21,25; 31,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-41,02; 44,28</t>
+          <t>-56,86; -20,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,36; 18,66</t>
+          <t>-65,8; -29,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 77,77</t>
+          <t>-1,7; 42,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,68; 33,34</t>
+          <t>-42,66; -9,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-41,38; 18,75</t>
+          <t>-48,83; -12,29</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>-4,98</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-11,0</t>
+          <t>-4,15</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-14,03</t>
+          <t>-11,94</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,57</t>
+          <t>10,58</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>-6,93</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>-11,44</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-6,64</t>
+          <t>-5,59</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-8,87</t>
+          <t>-11,7</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 7,75</t>
+          <t>-12,2; 2,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,94; -5,01</t>
+          <t>-12,23; 2,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-20,71; -8,1</t>
+          <t>-20,3; -4,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,91; 15,17</t>
+          <t>2,01; 18,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 3,5</t>
+          <t>-14,16; 0,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 3,79</t>
+          <t>-19,55; -3,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 9,96</t>
+          <t>-2,59; 8,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,04; -2,18</t>
+          <t>-11,21; 0,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,51; -4,4</t>
+          <t>-17,19; -5,87</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>-19,05%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-41,19%</t>
+          <t>-15,88%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-52,51%</t>
+          <t>-45,7%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>41,86%</t>
+          <t>40,13%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-9,3%</t>
+          <t>-26,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-13,66%</t>
+          <t>-43,38%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-27,99%</t>
+          <t>-21,28%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-37,38%</t>
+          <t>-44,56%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,07; 32,35</t>
+          <t>-43,86; 8,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,99; -22,25</t>
+          <t>-39,28; 12,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-67,21; -32,07</t>
+          <t>-67,78; -20,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,8; 87,42</t>
+          <t>5,32; 83,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,45; 19,62</t>
+          <t>-45,95; 3,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,79; 21,34</t>
+          <t>-64,76; -15,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 45,26</t>
+          <t>-8,71; 38,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-41,64; -10,04</t>
+          <t>-37,9; 3,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-51,82; -19,59</t>
+          <t>-59,45; -24,99</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,58</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-6,93</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-11,77</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,98</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,15</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-10,19</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-5,59</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-11,0</t>
+          <t>-0,05</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,62; 18,85</t>
+          <t>1,11; 12,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 0,51</t>
+          <t>-6,78; 4,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,27; -3,71</t>
+          <t>-8,1; 3,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 1,69</t>
+          <t>-1,96; 10,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 3,42</t>
+          <t>-8,43; 3,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,72; -3,23</t>
+          <t>-4,5; 8,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 8,57</t>
+          <t>1,36; 10,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 0,01</t>
+          <t>-6,09; 1,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-16,76; -5,83</t>
+          <t>-4,13; 4,38</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>40,13%</t>
+          <t>51,32%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-26,29%</t>
+          <t>-10,99%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-44,63%</t>
+          <t>-19,21%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-19,05%</t>
+          <t>29,58%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-15,88%</t>
+          <t>-12,42%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-39,0%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>39,17%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-21,28%</t>
+          <t>-11,81%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-41,88%</t>
+          <t>-0,33%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,3; 84,23</t>
+          <t>3,71; 123,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-47,0; 1,2</t>
+          <t>-41,73; 41,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-63,65; -15,91</t>
+          <t>-51,86; 41,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-39,4; 9,05</t>
+          <t>-8,77; 75,19</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-39,7; 16,87</t>
+          <t>-42,41; 24,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-58,62; -12,61</t>
+          <t>-22,67; 59,33</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 37,59</t>
+          <t>7,64; 78,7</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-37,5; 0,25</t>
+          <t>-35,25; 13,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-55,59; -22,81</t>
+          <t>-25,83; 32,56</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,85</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-4,99</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>-6,39</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>5,94</t>
+          <t>5,07</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-5,14</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 11,83</t>
+          <t>0,78; 7,65</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 3,73</t>
+          <t>-5,13; 1,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 8,24</t>
+          <t>-7,58; 0,31</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,87; 12,95</t>
+          <t>2,42; 9,4</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 4,11</t>
+          <t>-8,45; -1,78</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 2,62</t>
+          <t>-9,67; -2,72</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,54; 10,92</t>
+          <t>2,28; 7,67</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 2,16</t>
+          <t>-5,78; -1,06</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 3,51</t>
+          <t>-7,65; -2,42</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>29,58%</t>
+          <t>22,13%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-12,42%</t>
+          <t>-8,88%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>-19,66%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>51,32%</t>
+          <t>26,85%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-10,99%</t>
+          <t>-22,97%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-25,06%</t>
+          <t>-29,43%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>39,17%</t>
+          <t>24,67%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-11,81%</t>
+          <t>-16,54%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-5,29%</t>
+          <t>-24,99%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 86,31</t>
+          <t>3,46; 43,03</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-39,75; 26,92</t>
+          <t>-24,9; 7,83</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-24,59; 60,26</t>
+          <t>-36,56; 1,07</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1,79; 116,22</t>
+          <t>10,04; 46,86</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-42,97; 43,14</t>
+          <t>-35,6; -8,79</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-54,81; 32,47</t>
+          <t>-41,03; -12,78</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>8,61; 83,15</t>
+          <t>10,12; 39,47</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-33,67; 17,77</t>
+          <t>-26,27; -5,3</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-29,73; 25,52</t>
+          <t>-35,1; -12,16</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>5,83</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-4,99</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-6,72</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>4,28</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-1,72</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-4,27</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>5,07</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-3,4</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-5,53</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>2,19; 9,63</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-8,46; -1,72</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-9,85; -3,01</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>1,02; 8,01</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-4,92; 1,56</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-7,52; -0,87</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>2,51; 7,67</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-5,71; -0,96</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-8,1; -3,22</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>26,85%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-22,97%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-30,93%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>22,13%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-8,88%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-22,11%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>24,67%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-16,54%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-26,91%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>9,09; 49,4</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-35,5; -8,26</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-41,87; -14,73</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>4,98; 46,42</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-23,55; 8,88</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-36,44; -4,67</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>11,11; 38,72</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-26,3; -4,89</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-37,06; -16,43</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
